--- a/Analysis/Results/Variability/bf_elisa_dpi28.xlsx
+++ b/Analysis/Results/Variability/bf_elisa_dpi28.xlsx
@@ -401,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7.349629888853763</v>
+        <v>4.386848731203057</v>
       </c>
       <c r="D2">
-        <v>0.009921759917155146</v>
+        <v>0.04276377253486605</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -492,10 +492,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.366635791031922</v>
+        <v>0.06327628614961191</v>
       </c>
       <c r="D2">
-        <v>0.5483515083817897</v>
+        <v>0.8027114284680835</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.696187252166027</v>
+        <v>1.52041996041489</v>
       </c>
       <c r="D2">
-        <v>0.05987853290183491</v>
+        <v>0.2252938087444379</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
